--- a/Passungstabelle.xlsx
+++ b/Passungstabelle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tirochm.tmb18\Documents\GitHub\KE4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{433440BA-FC69-4D58-8908-C5425C79592E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3D65D2-0536-4E39-911C-1149DC31F163}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{AF0881B6-1CCA-44F1-A80E-DC9649F1D39B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>306 H8</t>
   </si>
@@ -76,6 +76,24 @@
   </si>
   <si>
     <t>*Abmaße in µm nach DIN 286-1</t>
+  </si>
+  <si>
+    <t>11 H13</t>
+  </si>
+  <si>
+    <t>22 H13</t>
+  </si>
+  <si>
+    <t>20 H13</t>
+  </si>
+  <si>
+    <t>75 D7</t>
+  </si>
+  <si>
+    <t>Innenmaß* unteres Maß</t>
+  </si>
+  <si>
+    <t>9 H13</t>
   </si>
 </sst>
 </file>
@@ -427,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9647BE9-29C2-44C5-A4F5-BCF72AAF0C90}">
-  <dimension ref="A2:E9"/>
+  <dimension ref="A2:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,9 +456,10 @@
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="24.5703125" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -456,8 +475,11 @@
       <c r="E2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -473,8 +495,11 @@
       <c r="E3">
         <v>81</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -490,8 +515,11 @@
       <c r="E4">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -507,8 +535,11 @@
       <c r="E5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -524,8 +555,11 @@
       <c r="E6">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -541,8 +575,11 @@
       <c r="E7">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -558,10 +595,66 @@
       <c r="E8">
         <v>63</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>27</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>33</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>33</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>13</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>22</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
